--- a/ExcelHelper/ExcelTables/Частоты.xlsx
+++ b/ExcelHelper/ExcelTables/Частоты.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1121">
   <si>
     <t>алгебра</t>
   </si>
@@ -3384,6 +3384,9 @@
   </si>
   <si>
     <t>клетка</t>
+  </si>
+  <si>
+    <t>буба</t>
   </si>
 </sst>
 </file>
@@ -3813,7 +3816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
       <selection activeCell="G229" sqref="G229"/>
@@ -7035,6 +7038,34 @@
         <v>1</v>
       </c>
       <c r="D230" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
         <v>1</v>
       </c>
     </row>

--- a/ExcelHelper/ExcelTables/Частоты.xlsx
+++ b/ExcelHelper/ExcelTables/Частоты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="клетка" sheetId="1" r:id="rId1"/>
@@ -3818,7 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+    <sheetView topLeftCell="A212" workbookViewId="0">
       <selection activeCell="G229" sqref="G229"/>
     </sheetView>
   </sheetViews>
@@ -19029,7 +19029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/ExcelHelper/ExcelTables/Частоты.xlsx
+++ b/ExcelHelper/ExcelTables/Частоты.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="клетка" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1120">
   <si>
     <t>алгебра</t>
   </si>
@@ -3384,9 +3384,6 @@
   </si>
   <si>
     <t>клетка</t>
-  </si>
-  <si>
-    <t>буба</t>
   </si>
 </sst>
 </file>
@@ -3816,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="G229" sqref="G229"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,34 +7038,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7078,7 +7047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A208" workbookViewId="0">
       <selection activeCell="D26" sqref="D25:E26"/>
     </sheetView>
   </sheetViews>
@@ -10298,7 +10267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -13341,7 +13310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
       <selection activeCell="D1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
@@ -15961,7 +15930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A202" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -19029,7 +18998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/ExcelHelper/ExcelTables/Частоты.xlsx
+++ b/ExcelHelper/ExcelTables/Частоты.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA008BA3-F4BA-4D3A-B1CC-0C40AC1309D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="клетка" sheetId="1" r:id="rId1"/>
@@ -3389,7 +3390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3812,10 +3813,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
       <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
@@ -7044,7 +7045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView topLeftCell="A208" workbookViewId="0">
@@ -10264,7 +10265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
@@ -13307,10 +13308,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+    <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="D1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
@@ -15927,7 +15928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView topLeftCell="A202" workbookViewId="0">
@@ -18995,7 +18996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView topLeftCell="A195" workbookViewId="0">

--- a/ExcelHelper/ExcelTables/Частоты.xlsx
+++ b/ExcelHelper/ExcelTables/Частоты.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA008BA3-F4BA-4D3A-B1CC-0C40AC1309D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="клетка" sheetId="1" r:id="rId1"/>
@@ -3390,7 +3389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3813,7 +3812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
@@ -7045,7 +7044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView topLeftCell="A208" workbookViewId="0">
@@ -10265,7 +10264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
@@ -13308,7 +13307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView topLeftCell="A161" workbookViewId="0">
@@ -15928,7 +15927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView topLeftCell="A202" workbookViewId="0">
@@ -18996,7 +18995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView topLeftCell="A195" workbookViewId="0">

--- a/ExcelHelper/ExcelTables/Частоты.xlsx
+++ b/ExcelHelper/ExcelTables/Частоты.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7224D-B88C-4BAD-8AE9-A202EA0BB6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="клетка" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1120">
   <si>
     <t>алгебра</t>
   </si>
@@ -3389,7 +3390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3812,7 +3813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
@@ -3913,7 +3914,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -7044,8 +7045,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D231"/>
   <sheetViews>
     <sheetView topLeftCell="A208" workbookViewId="0">
       <selection activeCell="D26" sqref="D25:E26"/>
@@ -10258,14 +10259,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>375</v>
+      </c>
+      <c r="B230">
+        <v>85</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>375</v>
+      </c>
+      <c r="B231">
+        <v>85</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
@@ -13301,14 +13330,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>447</v>
+      </c>
+      <c r="B217">
+        <v>206</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>447</v>
+      </c>
+      <c r="B218">
+        <v>206</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="D1" sqref="B1:D1"/>
@@ -15921,13 +15978,41 @@
         <v>3</v>
       </c>
     </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>728</v>
+      </c>
+      <c r="B187">
+        <v>59</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>841</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>-1</v>
+      </c>
+      <c r="D188">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView topLeftCell="A202" workbookViewId="0">
@@ -17022,7 +17107,7 @@
         <v>841</v>
       </c>
       <c r="B78" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
@@ -18995,8 +19080,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
@@ -21889,6 +21974,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>953</v>
+      </c>
+      <c r="B207">
+        <v>124</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>953</v>
+      </c>
+      <c r="B208">
+        <v>124</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelHelper/ExcelTables/Частоты.xlsx
+++ b/ExcelHelper/ExcelTables/Частоты.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC7224D-B88C-4BAD-8AE9-A202EA0BB6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE535F74-9258-4FCA-AB2E-EC18D99B69DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="клетка" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1120">
   <si>
     <t>алгебра</t>
   </si>
@@ -3816,7 +3816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+    <sheetView topLeftCell="A209" workbookViewId="0">
       <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
@@ -3914,7 +3914,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -10294,7 +10294,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
@@ -13358,6 +13358,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>447</v>
+      </c>
+      <c r="B219">
+        <v>206</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13365,7 +13379,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="D1" sqref="B1:D1"/>
@@ -16004,6 +16018,20 @@
       </c>
       <c r="D188">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>728</v>
+      </c>
+      <c r="B189">
+        <v>59</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -17107,7 +17135,7 @@
         <v>841</v>
       </c>
       <c r="B78" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
@@ -19081,9 +19109,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -22002,6 +22030,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>953</v>
+      </c>
+      <c r="B209">
+        <v>124</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
